--- a/3-data-analysis/nycland.xlsx
+++ b/3-data-analysis/nycland.xlsx
@@ -132,7 +132,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
@@ -204,11 +204,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -216,7 +216,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Borough</a:t>
+                  <a:t>Land area (square miles)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -235,7 +235,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
           <c:tx>
@@ -248,7 +248,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Land area (square miles)</a:t>
+                  <a:t>Borough</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -278,6 +278,44 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>64019</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="nyc-land.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="3048000"/>
+          <a:ext cx="5550419" cy="3534163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -293,7 +331,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -302,7 +340,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>

--- a/3-data-analysis/nycland.xlsx
+++ b/3-data-analysis/nycland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>borough</t>
   </si>
@@ -22,19 +22,28 @@
     <t>land_area</t>
   </si>
   <si>
+    <t>The Bronx</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
     <t>Manhattan</t>
   </si>
   <si>
-    <t>The Bronx</t>
+    <t>Queens</t>
   </si>
   <si>
     <t>Staten Island</t>
   </si>
   <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>Queens</t>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Smallest borough: 22.83</t>
+  </si>
+  <si>
+    <t>Largest borough: 108.53</t>
   </si>
 </sst>
 </file>
@@ -93,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,248 +115,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Land area of NYC boroughs</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>land_area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Manhattan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>The Bronx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Staten Island</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brooklyn</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Queens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>22.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.81999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Land area (square miles)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Borough</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>64019</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>105163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="nyc-land.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="3048000"/>
-          <a:ext cx="5550419" cy="3534163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,80 +402,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>22.83</v>
-      </c>
-      <c r="C2">
-        <v>22.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>42.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>42.1</v>
-      </c>
-      <c r="C3">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>58.37</v>
-      </c>
-      <c r="C4">
-        <v>58.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>70.81999999999999</v>
-      </c>
-      <c r="C5">
-        <v>70.81999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>108.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>108.53</v>
-      </c>
-      <c r="C6">
-        <v>108.53</v>
+        <v>58.37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/3-data-analysis/nycland.xlsx
+++ b/3-data-analysis/nycland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>borough</t>
   </si>
@@ -37,29 +37,18 @@
     <t>Staten Island</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Smallest borough: 22.83</t>
-  </si>
-  <si>
-    <t>Largest borough: 108.53</t>
+    <t>Borough</t>
+  </si>
+  <si>
+    <t>Land area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,31 +72,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +85,17 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="nyc" displayName="nyc" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Borough"/>
+    <tableColumn id="2" name="Land area"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,52 +383,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>42.1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>70.81999999999999</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -455,7 +421,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -463,7 +429,7 @@
         <v>108.53</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -473,5 +439,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>